--- a/CodeSystem-infectious-disease-system.xlsx
+++ b/CodeSystem-infectious-disease-system.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T14:30:36-05:00</t>
+    <t>2024-01-05T10:12:51-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2</t>
+    <t>20</t>
   </si>
   <si>
     <t>Level</t>
@@ -129,16 +129,124 @@
     <t>1</t>
   </si>
   <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Anthrax</t>
+  </si>
+  <si>
+    <t>WN</t>
+  </si>
+  <si>
+    <t>West Nile</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>Botulism</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Cholera</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Coronavirus</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Denque</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>Ebola</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>Gonorrhea</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Measles</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Marburg</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Meningococcal disease</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Mpox</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>Rabies</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>Rubella</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Smallpox</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>Syphillis</t>
+  </si>
+  <si>
     <t>TB</t>
   </si>
   <si>
     <t>Tuberculosis</t>
   </si>
   <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Measles</t>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Yellow Fever</t>
+  </si>
+  <si>
+    <t>ZI</t>
+  </si>
+  <si>
+    <t>Zika</t>
   </si>
 </sst>
 </file>
@@ -439,7 +547,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,6 +591,222 @@
       </c>
       <c r="D3" s="2"/>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-infectious-disease-system.xlsx
+++ b/CodeSystem-infectious-disease-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-05T10:12:51-05:00</t>
+    <t>2024-01-12T16:11:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-infectious-disease-system.xlsx
+++ b/CodeSystem-infectious-disease-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T16:11:38-05:00</t>
+    <t>2024-01-14T20:25:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-infectious-disease-system.xlsx
+++ b/CodeSystem-infectious-disease-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-14T20:25:13-05:00</t>
+    <t>2024-01-15T21:15:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-infectious-disease-system.xlsx
+++ b/CodeSystem-infectious-disease-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:15:59-05:00</t>
+    <t>2024-01-15T21:38:02-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-infectious-disease-system.xlsx
+++ b/CodeSystem-infectious-disease-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:38:02-05:00</t>
+    <t>2024-01-17T11:35:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-infectious-disease-system.xlsx
+++ b/CodeSystem-infectious-disease-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T11:35:10-05:00</t>
+    <t>2024-02-16T13:20:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
